--- a/nBackCond2.xlsx
+++ b/nBackCond2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\n-back-alpha\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\n-back-alpha2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0607CDAC-7094-4960-B59F-96D13991AD29}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D86802-4195-43B6-A91F-CA1FA2C2EFB2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="16536" windowHeight="8832" xr2:uid="{A25A6AAF-02FF-4CEF-951A-68BCD885595D}"/>
   </bookViews>
@@ -36,16 +36,16 @@
     <t>space</t>
   </si>
   <si>
-    <t>squareT2</t>
+    <t>square</t>
   </si>
   <si>
-    <t>loc1T2</t>
+    <t>loc1</t>
   </si>
   <si>
-    <t>loc2T2</t>
+    <t>loc2</t>
   </si>
   <si>
-    <t>corrAnsT2</t>
+    <t>corrAns</t>
   </si>
 </sst>
 </file>
